--- a/medicine/Sexualité et sexologie/Gershon_Legman/Gershon_Legman.xlsx
+++ b/medicine/Sexualité et sexologie/Gershon_Legman/Gershon_Legman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gershon Legman, né le 2 novembre 1917 à Scranton en Pennsylvanie et mort le 23 février 1999 à Grasse dans les Alpes-Maritimes[1], est un écrivain et bibliographe américain, auteur de nombreux essais sur les paraphilies et les jeux de langage.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gershon Legman, né le 2 novembre 1917 à Scranton en Pennsylvanie et mort le 23 février 1999 à Grasse dans les Alpes-Maritimes, est un écrivain et bibliographe américain, auteur de nombreux essais sur les paraphilies et les jeux de langage.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le décès de Gershon Legman en 1999 a permis de mettre en lumière sa vie restée longtemps mystérieuse[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le décès de Gershon Legman en 1999 a permis de mettre en lumière sa vie restée longtemps mystérieuse.
 Très jeune, Legman s'intéresse aux sexualités, aux récits folkloriques grivois ou paillards et aux origamis, domaines relativement délaissés par les études universitaires américaines. En 1940, il publie son premier ouvrage, Oragenitalism, Part I: Cunnilinctus (i.e. : Oragénitalisme : le Cunnilingus) sous le pseudonyme de Roger-Maxe de la Glannege (une anagramme de son nom). Le tirage est immédiatement saisi et en partie détruit par la police.
 Il collabore sur le plan bibliographique aux recherches du Kinsey Institute mais s'éloignera d'Alfred Kinsey pour des raisons personnelles.
 En 1949, il publie et distribue lui-même son essai Love and Death, une attaque en règle de la censure qui frappe via l'appareil législatif américain tous les travaux relatifs aux sexualités jugées non conformes. Il est condamné pour violation des règlements postaux qui interdit de distribuer du matériel jugé pornographique. Il choisit alors de quitter les États-Unis vers 1952 et s'installe dans un petit village près de Valbonne en Provence.
 En 1953, il publie The Limerick également à compte d'auteur, mais imprimé en France cette fois, une anthologie de 1 700 limericks, essentiellement grivois ou à connotation érotique : le texte est en anglais et savamment documenté, et fait aujourd'hui référence. Il est possible que cet ouvrage fut imprimé avec l'aide de Maurice Girodias. Il rééditera cet ouvrage en 1977 puis en 1980, avec de nouveaux ajouts.
 En 1955, il est le commissaire d'une exposition autour d'Akira Yoshizawa au Stedelijk Museum (Amsterdam).
-En 1966, il réédite chez Grove Press, avec un appareil de notes, Ma vie secrète (My Secret Life), confession sexuelle attribuée dès 1962 par Legman à Henry Spencer Ashbee et originellement publiée par Auguste Brancart en 1888[3].
+En 1966, il réédite chez Grove Press, avec un appareil de notes, Ma vie secrète (My Secret Life), confession sexuelle attribuée dès 1962 par Legman à Henry Spencer Ashbee et originellement publiée par Auguste Brancart en 1888.
 En 1968, son œuvre majeure paraît : Rationale of the Dirty Jokes comprend plus de 2000 exemples commentés de blagues salaces empruntées aux répertoires occidentaux.
 Legman se maria trois fois et eut quatre enfants.
 </t>
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Principales œuvres
 Roger-Maxe de la Glannege [pseud.] : Oragenitalism, an Encyclopaedic Outline of Oral Technique in Genital Excitation, Part I: Cunnilinctus, New York, Jacob Brussel, 1940 - rééd. : The Julian Press Inc., 1969
